--- a/biology/Médecine/Thésée_Pouillet/Thésée_Pouillet.xlsx
+++ b/biology/Médecine/Thésée_Pouillet/Thésée_Pouillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9s%C3%A9e_Pouillet</t>
+          <t>Thésée_Pouillet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thésée Pouillet (Arras, 15 février 1849[1] - 1923) est un médecin français spécialiste de la sexualité et notamment de l'onanisme. Il est anecdotiquement connu pour avoir préconisé la clitoridectomie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thésée Pouillet (Arras, 15 février 1849 - 1923) est un médecin français spécialiste de la sexualité et notamment de l'onanisme. Il est anecdotiquement connu pour avoir préconisé la clitoridectomie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9s%C3%A9e_Pouillet</t>
+          <t>Thésée_Pouillet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>De l'onanisme chez l'homme : avec une introduction sur les abus génitaux, 1892[3].
-De l’onanisme chez la Femme, 1877[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De l'onanisme chez l'homme : avec une introduction sur les abus génitaux, 1892.
+De l’onanisme chez la Femme, 1877
 Des écoulements blennorrhagiques contagieux, aigus et chroniques de l'homme et de la femme., 1878</t>
         </is>
       </c>
